--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_18_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_18_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2006198.526763678</v>
+        <v>-2009117.742878832</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="G2" t="n">
         <v>4.562286607642875</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,25 +738,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -817,50 +817,50 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>4.018462044011843</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="U4" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
+        <v>13.93890542723723</v>
+      </c>
+      <c r="Y5" t="n">
         <v>5.401342158599112</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>13.93890542723723</v>
       </c>
     </row>
     <row r="6">
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>13.93890542723723</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>12.27738790031055</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="G7" t="n">
-        <v>12.27738790031055</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="I7" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>13.93890542723723</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>12.27738790031055</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>128.1180882049829</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>74.07226406274829</v>
       </c>
       <c r="G8" t="n">
         <v>13.32208670240187</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>128.1180882049829</v>
       </c>
       <c r="I8" t="n">
-        <v>128.1180882049817</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>25.45206132579878</v>
       </c>
       <c r="S8" t="n">
-        <v>128.1180882049817</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>128.1180882049817</v>
+        <v>128.1180882049829</v>
       </c>
       <c r="X8" t="n">
-        <v>92.6482796468345</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>128.1180882049817</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>52.90991507887809</v>
+        <v>52.909915078878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>34.36089443442228</v>
+        <v>34.36089443442211</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>128.1180882049829</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>128.1180882049829</v>
       </c>
       <c r="W9" t="n">
-        <v>25.5756025776474</v>
+        <v>25.57560257764878</v>
       </c>
       <c r="X9" t="n">
-        <v>128.1180882049817</v>
+        <v>128.1180882049829</v>
       </c>
       <c r="Y9" t="n">
-        <v>128.1180882049817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>128.1180882049817</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>128.1180882049817</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>128.1180882049817</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.54564010121047</v>
+        <v>30.54564010121031</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,28 +1333,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>11.76632291192026</v>
+        <v>11.76632291192007</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>128.1180882049829</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>128.1180882049829</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>70.53444907781851</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>128.1180882049829</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>70.53444907781702</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>159.6553095852818</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>200.6441251057049</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>74.7576914549238</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>192.441862429234</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>293.0835221374365</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1625,7 +1625,7 @@
         <v>286.8518683469699</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.9303487751657</v>
+        <v>91.93034877516573</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>200.6028050067863</v>
       </c>
       <c r="U14" t="n">
         <v>250.9345864167828</v>
       </c>
       <c r="V14" t="n">
-        <v>73.43185217987083</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1704,7 +1704,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I15" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T15" t="n">
         <v>189.0833237787849</v>
@@ -1765,19 +1765,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>133.4775183523951</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6861009032421</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>141.7347076965137</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.65767465442971</v>
+        <v>73.65767465442973</v>
       </c>
       <c r="S16" t="n">
         <v>183.8488525946973</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.097472392356</v>
       </c>
       <c r="U16" t="n">
         <v>286.1933087134791</v>
       </c>
       <c r="V16" t="n">
-        <v>42.88854630602939</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187934</v>
       </c>
       <c r="D17" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684688</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894973</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247496</v>
       </c>
       <c r="H17" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947557</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295356</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645687</v>
       </c>
       <c r="V17" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W17" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651989</v>
       </c>
       <c r="X17" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262549</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T18" t="n">
         <v>189.0833237787849</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C19" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464137</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943565</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510282</v>
+        <v>134.075898551028</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139452998</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221564</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T19" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612651</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V19" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W19" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843807</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D20" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F20" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G20" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H20" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295169</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545717</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V20" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W20" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X20" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T21" t="n">
         <v>189.0833237787849</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C22" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D22" t="n">
         <v>117.0052706659984</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G22" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453006</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221571</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T22" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V22" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W22" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>378.5542040247497</v>
       </c>
       <c r="H23" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295169</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545723</v>
@@ -2476,25 +2476,25 @@
         <v>148.2217778297233</v>
       </c>
       <c r="C25" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707195</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453003</v>
+        <v>54.52629139453008</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.0474723022157</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T25" t="n">
-        <v>186.4872700401419</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U25" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V25" t="n">
         <v>220.527440971614</v>
@@ -2539,7 +2539,7 @@
         <v>254.912795984377</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y25" t="n">
         <v>186.9744509998808</v>
@@ -2555,7 +2555,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D26" t="n">
         <v>323.072839268469</v>
@@ -2564,10 +2564,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G26" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H26" t="n">
         <v>255.2416659947559</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V26" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W26" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X26" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y26" t="n">
         <v>354.6277363038396</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C28" t="n">
         <v>135.6366187464139</v>
@@ -2719,7 +2719,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943562</v>
       </c>
       <c r="F28" t="n">
         <v>113.8108456707173</v>
@@ -2731,7 +2731,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453008</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V28" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W28" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X28" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D29" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894976</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H29" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295186</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V29" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W29" t="n">
-        <v>317.6307663651992</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X29" t="n">
-        <v>338.1208983262552</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H30" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116146</v>
       </c>
       <c r="I30" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902189021</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C31" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707147</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.5262913945302</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221587</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V31" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V32" t="n">
         <v>296.142056117921</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C34" t="n">
         <v>135.6366187464139</v>
@@ -3193,7 +3193,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F34" t="n">
         <v>113.8108456707173</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.5262913945301</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221576</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T34" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V34" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W34" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187934</v>
       </c>
       <c r="D35" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684688</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894973</v>
       </c>
       <c r="G35" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247496</v>
       </c>
       <c r="H35" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947557</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295164</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645687</v>
       </c>
       <c r="V35" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179228</v>
       </c>
       <c r="W35" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651989</v>
       </c>
       <c r="X35" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262549</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C37" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464137</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707171</v>
       </c>
       <c r="G37" t="n">
-        <v>134.0758985510282</v>
+        <v>134.075898551028</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139452996</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221963</v>
       </c>
       <c r="S37" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T37" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612652</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V37" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W37" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X37" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>378.5542040247497</v>
       </c>
       <c r="H38" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,7 +3560,7 @@
         <v>219.3243840645688</v>
       </c>
       <c r="V38" t="n">
-        <v>296.1420561179209</v>
+        <v>296.1420561179215</v>
       </c>
       <c r="W38" t="n">
         <v>317.630766365199</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D41" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F41" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G41" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H41" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295184</v>
+        <v>60.32014642295169</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V41" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W41" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X41" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C43" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G43" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453018</v>
+        <v>54.52629139453003</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221584</v>
+        <v>42.0474723022157</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T43" t="n">
-        <v>186.4872700401421</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612652</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V43" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W43" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D44" t="n">
         <v>323.072839268469</v>
@@ -3986,10 +3986,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F44" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G44" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H44" t="n">
         <v>255.2416659947559</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295169</v>
       </c>
       <c r="T44" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U44" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V44" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179215</v>
       </c>
       <c r="W44" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X44" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y44" t="n">
         <v>354.6277363038396</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C46" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G46" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510304</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453003</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221578</v>
+        <v>42.0474723022157</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T46" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612651</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V46" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W46" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y46" t="n">
         <v>186.9744509998808</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.973353239361809</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="C2" t="n">
-        <v>4.973353239361809</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="D2" t="n">
-        <v>4.973353239361809</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="E2" t="n">
-        <v>4.973353239361809</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="F2" t="n">
         <v>4.973353239361809</v>
@@ -4331,49 +4331,49 @@
         <v>0.36498292861143</v>
       </c>
       <c r="K2" t="n">
-        <v>0.36498292861143</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="L2" t="n">
-        <v>0.36498292861143</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="M2" t="n">
-        <v>4.69915520587216</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="N2" t="n">
-        <v>9.215818947438606</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="O2" t="n">
         <v>13.73248268900505</v>
       </c>
       <c r="P2" t="n">
-        <v>18.2491464305715</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="Q2" t="n">
         <v>18.2491464305715</v>
       </c>
       <c r="R2" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="S2" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="T2" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="U2" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="V2" t="n">
-        <v>9.581723550112187</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="W2" t="n">
-        <v>4.973353239361809</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="X2" t="n">
-        <v>4.973353239361809</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.973353239361809</v>
+        <v>18.2491464305715</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.973353239361809</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="C3" t="n">
-        <v>4.973353239361809</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="D3" t="n">
-        <v>4.973353239361809</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="E3" t="n">
-        <v>4.973353239361809</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="F3" t="n">
-        <v>4.973353239361809</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="G3" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H3" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I3" t="n">
         <v>0.36498292861143</v>
@@ -4443,16 +4443,16 @@
         <v>13.64077611982112</v>
       </c>
       <c r="V3" t="n">
-        <v>9.581723550112187</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="W3" t="n">
-        <v>4.973353239361809</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="X3" t="n">
-        <v>4.973353239361809</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.973353239361809</v>
+        <v>13.64077611982112</v>
       </c>
     </row>
     <row r="4">
@@ -4465,22 +4465,22 @@
         <v>9.032405809070742</v>
       </c>
       <c r="C4" t="n">
-        <v>9.032405809070742</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="D4" t="n">
-        <v>9.032405809070742</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="E4" t="n">
-        <v>4.973353239361809</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="F4" t="n">
-        <v>4.973353239361809</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="G4" t="n">
-        <v>4.973353239361809</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="H4" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I4" t="n">
         <v>0.36498292861143</v>
@@ -4489,46 +4489,46 @@
         <v>0.36498292861143</v>
       </c>
       <c r="K4" t="n">
-        <v>4.881646670177876</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L4" t="n">
-        <v>9.398310411744323</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="M4" t="n">
-        <v>13.73248268900505</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="N4" t="n">
         <v>13.73248268900505</v>
       </c>
       <c r="O4" t="n">
-        <v>13.73248268900505</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="P4" t="n">
         <v>18.2491464305715</v>
       </c>
       <c r="Q4" t="n">
-        <v>18.2491464305715</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="R4" t="n">
-        <v>18.2491464305715</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="S4" t="n">
-        <v>18.2491464305715</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="T4" t="n">
-        <v>18.2491464305715</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="U4" t="n">
-        <v>13.64077611982112</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="V4" t="n">
-        <v>13.64077611982112</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="W4" t="n">
-        <v>13.64077611982112</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="X4" t="n">
-        <v>13.64077611982112</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="Y4" t="n">
         <v>9.032405809070742</v>
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36.220018086892</v>
+        <v>22.14031563513723</v>
       </c>
       <c r="C5" t="n">
-        <v>36.220018086892</v>
+        <v>22.14031563513723</v>
       </c>
       <c r="D5" t="n">
         <v>22.14031563513723</v>
@@ -4571,16 +4571,16 @@
         <v>1.115112434178978</v>
       </c>
       <c r="L5" t="n">
-        <v>5.31763219200683</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="M5" t="n">
-        <v>14.35707259005436</v>
+        <v>14.91462880714383</v>
       </c>
       <c r="N5" t="n">
-        <v>28.15658896301921</v>
+        <v>28.71414518010868</v>
       </c>
       <c r="O5" t="n">
-        <v>41.95610533598406</v>
+        <v>42.51366155307353</v>
       </c>
       <c r="P5" t="n">
         <v>55.75562170894892</v>
@@ -4592,25 +4592,25 @@
         <v>55.75562170894892</v>
       </c>
       <c r="S5" t="n">
-        <v>55.75562170894892</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="T5" t="n">
-        <v>55.75562170894892</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="U5" t="n">
-        <v>55.75562170894892</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="V5" t="n">
-        <v>55.75562170894892</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="W5" t="n">
-        <v>55.75562170894892</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="X5" t="n">
-        <v>50.29972053864678</v>
+        <v>27.59621680543936</v>
       </c>
       <c r="Y5" t="n">
-        <v>36.220018086892</v>
+        <v>22.14031563513723</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43.35421978944331</v>
+        <v>29.27451733768853</v>
       </c>
       <c r="C6" t="n">
-        <v>43.35421978944331</v>
+        <v>29.27451733768853</v>
       </c>
       <c r="D6" t="n">
-        <v>43.35421978944331</v>
+        <v>29.27451733768853</v>
       </c>
       <c r="E6" t="n">
         <v>29.27451733768853</v>
@@ -4668,28 +4668,28 @@
         <v>55.75562170894892</v>
       </c>
       <c r="R6" t="n">
-        <v>55.75562170894892</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.35421978944331</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="T6" t="n">
-        <v>43.35421978944331</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="U6" t="n">
-        <v>43.35421978944331</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="V6" t="n">
-        <v>43.35421978944331</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="W6" t="n">
-        <v>43.35421978944331</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="X6" t="n">
-        <v>43.35421978944331</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="Y6" t="n">
-        <v>43.35421978944331</v>
+        <v>29.27451733768853</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.67591925719414</v>
+        <v>29.27451733768853</v>
       </c>
       <c r="C7" t="n">
-        <v>41.67591925719414</v>
+        <v>29.27451733768853</v>
       </c>
       <c r="D7" t="n">
-        <v>41.67591925719414</v>
+        <v>29.27451733768853</v>
       </c>
       <c r="E7" t="n">
-        <v>41.67591925719414</v>
+        <v>29.27451733768853</v>
       </c>
       <c r="F7" t="n">
-        <v>41.67591925719414</v>
+        <v>15.19481488593376</v>
       </c>
       <c r="G7" t="n">
-        <v>29.27451733768853</v>
+        <v>15.19481488593376</v>
       </c>
       <c r="H7" t="n">
-        <v>29.27451733768853</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="I7" t="n">
-        <v>15.19481488593376</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="J7" t="n">
         <v>1.115112434178978</v>
       </c>
       <c r="K7" t="n">
-        <v>14.35707259005435</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="L7" t="n">
-        <v>14.35707259005435</v>
+        <v>14.91462880714383</v>
       </c>
       <c r="M7" t="n">
-        <v>28.15658896301921</v>
+        <v>28.71414518010869</v>
       </c>
       <c r="N7" t="n">
         <v>41.95610533598406</v>
       </c>
       <c r="O7" t="n">
-        <v>41.95610533598406</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="P7" t="n">
         <v>55.75562170894892</v>
@@ -4747,28 +4747,28 @@
         <v>41.67591925719414</v>
       </c>
       <c r="R7" t="n">
-        <v>41.67591925719414</v>
+        <v>29.27451733768853</v>
       </c>
       <c r="S7" t="n">
-        <v>41.67591925719414</v>
+        <v>29.27451733768853</v>
       </c>
       <c r="T7" t="n">
-        <v>41.67591925719414</v>
+        <v>29.27451733768853</v>
       </c>
       <c r="U7" t="n">
-        <v>41.67591925719414</v>
+        <v>29.27451733768853</v>
       </c>
       <c r="V7" t="n">
-        <v>41.67591925719414</v>
+        <v>29.27451733768853</v>
       </c>
       <c r="W7" t="n">
-        <v>41.67591925719414</v>
+        <v>29.27451733768853</v>
       </c>
       <c r="X7" t="n">
-        <v>41.67591925719414</v>
+        <v>29.27451733768853</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.67591925719414</v>
+        <v>29.27451733768853</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>160.0638113484137</v>
+        <v>357.3509896575258</v>
       </c>
       <c r="C8" t="n">
-        <v>160.0638113484137</v>
+        <v>357.3509896575258</v>
       </c>
       <c r="D8" t="n">
-        <v>160.0638113484137</v>
+        <v>357.3509896575258</v>
       </c>
       <c r="E8" t="n">
-        <v>160.0638113484137</v>
+        <v>227.9387793494623</v>
       </c>
       <c r="F8" t="n">
-        <v>153.1183105992102</v>
+        <v>153.1183105992115</v>
       </c>
       <c r="G8" t="n">
-        <v>139.6616573644608</v>
+        <v>139.6616573644621</v>
       </c>
       <c r="H8" t="n">
-        <v>139.6616573644608</v>
+        <v>10.24944705639863</v>
       </c>
       <c r="I8" t="n">
-        <v>10.24944705639853</v>
+        <v>10.24944705639863</v>
       </c>
       <c r="J8" t="n">
-        <v>10.24944705639853</v>
+        <v>10.24944705639863</v>
       </c>
       <c r="K8" t="n">
-        <v>41.7872432338736</v>
+        <v>41.78724323387451</v>
       </c>
       <c r="L8" t="n">
-        <v>117.8144300126739</v>
+        <v>117.8144300126753</v>
       </c>
       <c r="M8" t="n">
-        <v>234.0787616187954</v>
+        <v>234.0787616187978</v>
       </c>
       <c r="N8" t="n">
-        <v>356.8381800397532</v>
+        <v>356.8381800397565</v>
       </c>
       <c r="O8" t="n">
-        <v>459.4211565599418</v>
+        <v>459.421156559946</v>
       </c>
       <c r="P8" t="n">
-        <v>512.4723528199266</v>
+        <v>512.4723528199315</v>
       </c>
       <c r="Q8" t="n">
-        <v>512.4723528199266</v>
+        <v>512.4723528199315</v>
       </c>
       <c r="R8" t="n">
-        <v>512.4723528199266</v>
+        <v>486.7631999655893</v>
       </c>
       <c r="S8" t="n">
-        <v>383.0601425118643</v>
+        <v>486.7631999655893</v>
       </c>
       <c r="T8" t="n">
-        <v>383.0601425118643</v>
+        <v>486.7631999655893</v>
       </c>
       <c r="U8" t="n">
-        <v>383.0601425118643</v>
+        <v>486.7631999655893</v>
       </c>
       <c r="V8" t="n">
-        <v>383.0601425118643</v>
+        <v>486.7631999655893</v>
       </c>
       <c r="W8" t="n">
-        <v>253.647932203802</v>
+        <v>357.3509896575258</v>
       </c>
       <c r="X8" t="n">
-        <v>160.0638113484137</v>
+        <v>357.3509896575258</v>
       </c>
       <c r="Y8" t="n">
-        <v>160.0638113484137</v>
+        <v>357.3509896575258</v>
       </c>
     </row>
     <row r="9">
@@ -4878,55 +4878,55 @@
         <v>63.69380572193197</v>
       </c>
       <c r="I9" t="n">
-        <v>10.24944705639853</v>
+        <v>10.24944705639863</v>
       </c>
       <c r="J9" t="n">
-        <v>10.24944705639853</v>
+        <v>10.24944705639863</v>
       </c>
       <c r="K9" t="n">
-        <v>43.20020251626455</v>
+        <v>43.20020251626509</v>
       </c>
       <c r="L9" t="n">
-        <v>133.8291007629979</v>
+        <v>133.829100762999</v>
       </c>
       <c r="M9" t="n">
-        <v>258.9456185002338</v>
+        <v>258.9456185002355</v>
       </c>
       <c r="N9" t="n">
-        <v>336.3186789991386</v>
+        <v>385.7825258231686</v>
       </c>
       <c r="O9" t="n">
-        <v>444.7664898929915</v>
+        <v>444.7664898929959</v>
       </c>
       <c r="P9" t="n">
-        <v>512.4723528199266</v>
+        <v>512.4723528199315</v>
       </c>
       <c r="Q9" t="n">
-        <v>512.4723528199266</v>
+        <v>512.4723528199315</v>
       </c>
       <c r="R9" t="n">
-        <v>477.7643786437425</v>
+        <v>477.7643786437476</v>
       </c>
       <c r="S9" t="n">
-        <v>477.7643786437425</v>
+        <v>477.7643786437476</v>
       </c>
       <c r="T9" t="n">
-        <v>477.7643786437425</v>
+        <v>477.7643786437476</v>
       </c>
       <c r="U9" t="n">
-        <v>477.7643786437425</v>
+        <v>348.352168335684</v>
       </c>
       <c r="V9" t="n">
-        <v>477.7643786437425</v>
+        <v>218.9399580276205</v>
       </c>
       <c r="W9" t="n">
-        <v>451.9304366461189</v>
+        <v>193.1060160299955</v>
       </c>
       <c r="X9" t="n">
-        <v>322.5182263380566</v>
+        <v>63.69380572193197</v>
       </c>
       <c r="Y9" t="n">
-        <v>193.1060160299943</v>
+        <v>63.69380572193197</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>429.3402599010001</v>
+        <v>41.10362897681309</v>
       </c>
       <c r="C10" t="n">
-        <v>299.9280495929378</v>
+        <v>41.10362897681309</v>
       </c>
       <c r="D10" t="n">
-        <v>170.5158392848755</v>
+        <v>41.10362897681309</v>
       </c>
       <c r="E10" t="n">
-        <v>170.5158392848755</v>
+        <v>41.10362897681309</v>
       </c>
       <c r="F10" t="n">
-        <v>41.10362897681315</v>
+        <v>41.10362897681309</v>
       </c>
       <c r="G10" t="n">
-        <v>41.10362897681315</v>
+        <v>41.10362897681309</v>
       </c>
       <c r="H10" t="n">
-        <v>41.10362897681315</v>
+        <v>41.10362897681309</v>
       </c>
       <c r="I10" t="n">
-        <v>41.10362897681315</v>
+        <v>41.10362897681309</v>
       </c>
       <c r="J10" t="n">
-        <v>10.24944705639853</v>
+        <v>10.24944705639863</v>
       </c>
       <c r="K10" t="n">
-        <v>90.39237253319422</v>
+        <v>90.39237253319459</v>
       </c>
       <c r="L10" t="n">
-        <v>131.9616308511311</v>
+        <v>154.7734651266262</v>
       </c>
       <c r="M10" t="n">
-        <v>258.798538174063</v>
+        <v>155.1131035783214</v>
       </c>
       <c r="N10" t="n">
-        <v>385.6354454969948</v>
+        <v>281.9500109012545</v>
       </c>
       <c r="O10" t="n">
-        <v>512.4723528199266</v>
+        <v>408.7869182241875</v>
       </c>
       <c r="P10" t="n">
-        <v>512.4723528199266</v>
+        <v>512.4723528199315</v>
       </c>
       <c r="Q10" t="n">
-        <v>500.5871781614213</v>
+        <v>500.5871781614264</v>
       </c>
       <c r="R10" t="n">
-        <v>500.5871781614213</v>
+        <v>371.1749678533629</v>
       </c>
       <c r="S10" t="n">
-        <v>500.5871781614213</v>
+        <v>241.7627575452994</v>
       </c>
       <c r="T10" t="n">
-        <v>500.5871781614213</v>
+        <v>170.5158392848766</v>
       </c>
       <c r="U10" t="n">
-        <v>500.5871781614213</v>
+        <v>170.5158392848766</v>
       </c>
       <c r="V10" t="n">
-        <v>500.5871781614213</v>
+        <v>41.10362897681309</v>
       </c>
       <c r="W10" t="n">
-        <v>500.5871781614213</v>
+        <v>41.10362897681309</v>
       </c>
       <c r="X10" t="n">
-        <v>429.3402599010001</v>
+        <v>41.10362897681309</v>
       </c>
       <c r="Y10" t="n">
-        <v>429.3402599010001</v>
+        <v>41.10362897681309</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1959.379186075721</v>
+        <v>1533.918936517076</v>
       </c>
       <c r="C11" t="n">
-        <v>1590.416669135309</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="D11" t="n">
-        <v>1232.150970528558</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U11" t="n">
-        <v>3054.047163656183</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V11" t="n">
-        <v>2722.984276312612</v>
+        <v>2663.426763827124</v>
       </c>
       <c r="W11" t="n">
-        <v>2722.984276312612</v>
+        <v>2310.658108557009</v>
       </c>
       <c r="X11" t="n">
-        <v>2349.518518051532</v>
+        <v>2310.658108557009</v>
       </c>
       <c r="Y11" t="n">
-        <v>1959.379186075721</v>
+        <v>1920.518776581197</v>
       </c>
     </row>
     <row r="12">
@@ -5094,64 +5094,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>941.4970410294717</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C13" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5227,22 +5227,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1356.675339798491</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1356.675339798491</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>1162.289620173002</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X13" t="n">
-        <v>1162.289620173002</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y13" t="n">
-        <v>941.4970410294717</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2325.545057758603</v>
+        <v>2252.626502573178</v>
       </c>
       <c r="C14" t="n">
         <v>1956.582540818192</v>
@@ -5273,55 +5273,55 @@
         <v>97.48584166810102</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K14" t="n">
         <v>766.683188695145</v>
       </c>
       <c r="L14" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M14" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N14" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O14" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P14" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S14" t="n">
-        <v>4156.161510599079</v>
+        <v>4156.161510599077</v>
       </c>
       <c r="T14" t="n">
-        <v>4156.161510599079</v>
+        <v>3953.532414632626</v>
       </c>
       <c r="U14" t="n">
-        <v>3902.692231390207</v>
+        <v>3700.063135423755</v>
       </c>
       <c r="V14" t="n">
-        <v>3828.518643329731</v>
+        <v>3369.000248080184</v>
       </c>
       <c r="W14" t="n">
-        <v>3475.749988059617</v>
+        <v>3016.23159281007</v>
       </c>
       <c r="X14" t="n">
-        <v>3102.284229798537</v>
+        <v>2642.76583454899</v>
       </c>
       <c r="Y14" t="n">
-        <v>2712.144897822725</v>
+        <v>2252.626502573178</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J15" t="n">
         <v>216.5575109835859</v>
       </c>
       <c r="K15" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L15" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M15" t="n">
-        <v>1357.07436680343</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="N15" t="n">
-        <v>1934.929714729833</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="O15" t="n">
-        <v>1934.929714729833</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.031270281988</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q15" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R15" t="n">
         <v>2555.644190323788</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.4558074460974</v>
+        <v>744.7821569197155</v>
       </c>
       <c r="C16" t="n">
-        <v>779.5196245181905</v>
+        <v>609.9563808061851</v>
       </c>
       <c r="D16" t="n">
-        <v>629.4029851058548</v>
+        <v>609.9563808061851</v>
       </c>
       <c r="E16" t="n">
-        <v>629.4029851058548</v>
+        <v>462.0432872237919</v>
       </c>
       <c r="F16" t="n">
-        <v>482.5130376079444</v>
+        <v>315.1533397258816</v>
       </c>
       <c r="G16" t="n">
         <v>315.1533397258816</v>
@@ -5431,22 +5431,22 @@
         <v>171.9869683152617</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J16" t="n">
-        <v>153.8801783755867</v>
+        <v>153.8801783755866</v>
       </c>
       <c r="K16" t="n">
-        <v>396.9405013869777</v>
+        <v>396.9405013869776</v>
       </c>
       <c r="L16" t="n">
-        <v>763.5004667042034</v>
+        <v>763.5004667042033</v>
       </c>
       <c r="M16" t="n">
         <v>1160.375677726126</v>
       </c>
       <c r="N16" t="n">
-        <v>1553.248699711515</v>
+        <v>1553.248699711514</v>
       </c>
       <c r="O16" t="n">
         <v>1900.114228341785</v>
@@ -5464,22 +5464,22 @@
         <v>2019.061021685725</v>
       </c>
       <c r="T16" t="n">
-        <v>2019.061021685725</v>
+        <v>1798.760544521729</v>
       </c>
       <c r="U16" t="n">
-        <v>1729.97687147009</v>
+        <v>1509.676394306093</v>
       </c>
       <c r="V16" t="n">
-        <v>1686.655107524605</v>
+        <v>1254.991906100206</v>
       </c>
       <c r="W16" t="n">
-        <v>1397.237937487645</v>
+        <v>965.5747360632456</v>
       </c>
       <c r="X16" t="n">
-        <v>1169.248386589627</v>
+        <v>965.5747360632456</v>
       </c>
       <c r="Y16" t="n">
-        <v>948.4558074460974</v>
+        <v>744.7821569197155</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5501,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796667</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H17" t="n">
         <v>84.98040897511622</v>
@@ -5522,16 +5522,16 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q17" t="n">
         <v>4142.907144767228</v>
@@ -5540,19 +5540,19 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X17" t="n">
         <v>2834.342818501802</v>
@@ -5586,7 +5586,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
         <v>84.98040897511622</v>
@@ -5595,25 +5595,25 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L18" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.315654538067</v>
+        <v>1381.83934483395</v>
       </c>
       <c r="N18" t="n">
-        <v>2100.171002464469</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="O18" t="n">
-        <v>2143.777656741112</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P18" t="n">
-        <v>2530.879212293268</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q18" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R18" t="n">
         <v>2555.644190323788</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502113</v>
+        <v>872.862419750209</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477731</v>
+        <v>735.8557341477709</v>
       </c>
       <c r="D19" t="n">
-        <v>617.668592060906</v>
+        <v>617.668592060904</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039796</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315385</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749443</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I19" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042786</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443615</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902788</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040894</v>
@@ -5698,25 +5698,25 @@
         <v>2487.049233352544</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966198</v>
       </c>
       <c r="T19" t="n">
         <v>2144.90183912767</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237504</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357086</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D20" t="n">
         <v>1458.093420216582</v>
@@ -5738,10 +5738,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H20" t="n">
         <v>84.98040897511622</v>
@@ -5750,28 +5750,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M20" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O20" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R20" t="n">
         <v>4249.020448755811</v>
@@ -5783,10 +5783,10 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W20" t="n">
         <v>3175.879079437414</v>
@@ -5823,7 +5823,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I21" t="n">
         <v>84.98040897511622</v>
@@ -5832,19 +5832,19 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K21" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L21" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.315654538067</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="N21" t="n">
-        <v>1840.391293364258</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="O21" t="n">
-        <v>2346.796248312508</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P21" t="n">
         <v>2346.796248312508</v>
@@ -5884,49 +5884,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039799</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F22" t="n">
         <v>386.7245456315383</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H22" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I22" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L22" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N22" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O22" t="n">
         <v>2087.878830313936</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028687</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q22" t="n">
         <v>2529.521427597204</v>
@@ -5938,22 +5938,22 @@
         <v>2333.272818966195</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796683</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
         <v>84.98040897511622</v>
@@ -5987,52 +5987,52 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050965</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R23" t="n">
         <v>4249.020448755811</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T23" t="n">
         <v>4017.391409283564</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
-        <v>388.0214583249806</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L24" t="n">
-        <v>841.820087919308</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M24" t="n">
-        <v>850.6694118551806</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="N24" t="n">
-        <v>1428.524759781583</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="O24" t="n">
-        <v>1934.929714729833</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P24" t="n">
-        <v>2322.031270281989</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q24" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502118</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477735</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609066</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039822</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315382</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749441</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H25" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I25" t="n">
         <v>84.98040897511622</v>
@@ -6148,49 +6148,49 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M25" t="n">
         <v>1285.552079040894</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
         <v>2087.878830313936</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357085</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645593</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254983</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.178257479667</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H26" t="n">
         <v>84.98040897511622</v>
@@ -6224,7 +6224,7 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076834</v>
       </c>
       <c r="K26" t="n">
         <v>766.6831886951447</v>
@@ -6242,7 +6242,7 @@
         <v>3311.067850233288</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q26" t="n">
         <v>4142.907144767228</v>
@@ -6303,28 +6303,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J27" t="n">
-        <v>93.82973291098881</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K27" t="n">
-        <v>396.8707822608532</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L27" t="n">
-        <v>850.6694118551806</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M27" t="n">
-        <v>850.6694118551806</v>
+        <v>1381.83934483395</v>
       </c>
       <c r="N27" t="n">
-        <v>1428.524759781583</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="O27" t="n">
-        <v>1934.929714729833</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P27" t="n">
-        <v>2322.031270281989</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502108</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477726</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609056</v>
       </c>
       <c r="E28" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G28" t="n">
         <v>251.2943450749443</v>
       </c>
       <c r="H28" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I28" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N28" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q28" t="n">
         <v>2529.521427597205</v>
@@ -6412,22 +6412,22 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
         <v>1784.429621497863</v>
@@ -6446,52 +6446,52 @@
         <v>1458.093420216581</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796661</v>
+        <v>725.178257479667</v>
       </c>
       <c r="G29" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076835</v>
       </c>
       <c r="K29" t="n">
         <v>766.6831886951459</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U29" t="n">
         <v>3795.851627400161</v>
@@ -6506,7 +6506,7 @@
         <v>2834.342818501802</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J30" t="n">
         <v>216.5575109835859</v>
@@ -6546,22 +6546,22 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L30" t="n">
-        <v>973.3971899277776</v>
+        <v>973.3971899277775</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.315654538067</v>
+        <v>1522.315654538066</v>
       </c>
       <c r="N30" t="n">
         <v>2100.171002464469</v>
       </c>
       <c r="O30" t="n">
-        <v>2143.777656741113</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502079</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477696</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609024</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039778</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897932</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042782</v>
       </c>
       <c r="K31" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443609</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902781</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040893</v>
@@ -6643,28 +6643,28 @@
         <v>2529.521427597204</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352541</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966194</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.7471862375</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254979</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E32" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796672</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511606</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I32" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076834</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K32" t="n">
         <v>766.6831886951447</v>
@@ -6707,7 +6707,7 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N32" t="n">
         <v>2681.771598889755</v>
@@ -6716,7 +6716,7 @@
         <v>3311.067850233288</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q32" t="n">
         <v>4142.907144767228</v>
@@ -6728,22 +6728,22 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W32" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="33">
@@ -6780,13 +6780,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="K33" t="n">
-        <v>84.98040897511622</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="L33" t="n">
-        <v>538.7790385694436</v>
+        <v>841.820087919308</v>
       </c>
       <c r="M33" t="n">
-        <v>1087.697503179733</v>
+        <v>850.6694118551806</v>
       </c>
       <c r="N33" t="n">
         <v>1428.524759781583</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502094</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477712</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609041</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039796</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315379</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G34" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I34" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M34" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E35" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G35" t="n">
         <v>342.8002736162837</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511606</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I35" t="n">
         <v>84.98040897511622</v>
@@ -6938,22 +6938,22 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L35" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q35" t="n">
         <v>4142.907144767228</v>
@@ -6971,16 +6971,16 @@
         <v>3795.851627400162</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="36">
@@ -7014,19 +7014,19 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J36" t="n">
-        <v>216.5575109835859</v>
+        <v>165.6257438946549</v>
       </c>
       <c r="K36" t="n">
-        <v>519.5985603334502</v>
+        <v>468.6667932445192</v>
       </c>
       <c r="L36" t="n">
-        <v>973.3971899277776</v>
+        <v>922.4654228388466</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.315654538067</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N36" t="n">
-        <v>2100.171002464469</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O36" t="n">
         <v>2555.644190323788</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502096</v>
+        <v>872.862419750209</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477709</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609043</v>
+        <v>617.668592060904</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039797</v>
+        <v>501.6849958039796</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315381</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749443</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I37" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042786</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443615</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902786</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.04923335254</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966193</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127666</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.7471862375</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D38" t="n">
         <v>1458.093420216582</v>
@@ -7160,10 +7160,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
         <v>84.98040897511622</v>
@@ -7172,13 +7172,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951443</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M38" t="n">
         <v>2001.213713746738</v>
@@ -7187,10 +7187,10 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q38" t="n">
         <v>4142.907144767228</v>
@@ -7205,16 +7205,16 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W38" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y38" t="n">
         <v>2476.13298385146</v>
@@ -7333,10 +7333,10 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443591</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902766</v>
       </c>
       <c r="M40" t="n">
         <v>1285.552079040891</v>
@@ -7388,7 +7388,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D41" t="n">
         <v>1458.093420216582</v>
@@ -7397,25 +7397,25 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796672</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162835</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511584</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I41" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J41" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951443</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
         <v>2001.213713746738</v>
@@ -7424,10 +7424,10 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q41" t="n">
         <v>4142.907144767228</v>
@@ -7442,16 +7442,16 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W41" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y41" t="n">
         <v>2476.13298385146</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C43" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315382</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897932</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I43" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042763</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443591</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902766</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040891</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354971</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313934</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028687</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597203</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352541</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966194</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D44" t="n">
         <v>1458.093420216582</v>
@@ -7634,7 +7634,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162838</v>
@@ -7646,28 +7646,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R44" t="n">
         <v>4249.020448755811</v>
@@ -7725,28 +7725,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J45" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L45" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M45" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502118</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477735</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609066</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039822</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315405</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I46" t="n">
         <v>84.98040897511622</v>
@@ -7807,16 +7807,16 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M46" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O46" t="n">
         <v>2087.878830313936</v>
@@ -7825,31 +7825,31 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645593</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254983</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>69.75247211164648</v>
       </c>
       <c r="K2" t="n">
-        <v>53.28984570098882</v>
+        <v>57.8521323086317</v>
       </c>
       <c r="L2" t="n">
         <v>28.8362588753597</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>13.72420959127265</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P2" t="n">
-        <v>47.23127172271754</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.70197082457096</v>
+        <v>85.26425743221384</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>65.23786115827478</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L4" t="n">
-        <v>51.99825569640058</v>
+        <v>51.81392088397056</v>
       </c>
       <c r="M4" t="n">
-        <v>51.10133522184798</v>
+        <v>51.285670034278</v>
       </c>
       <c r="N4" t="n">
-        <v>37.67551094615366</v>
+        <v>42.23779755379654</v>
       </c>
       <c r="O4" t="n">
-        <v>55.31770395088348</v>
+        <v>59.87999055852636</v>
       </c>
       <c r="P4" t="n">
-        <v>71.15065506373918</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8219,19 +8219,19 @@
         <v>46.60529509404799</v>
       </c>
       <c r="L5" t="n">
-        <v>24.78845221140306</v>
+        <v>20.5434827590517</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>4.808157550421539</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>14.2467531491298</v>
+        <v>14.24675314912981</v>
       </c>
       <c r="P5" t="n">
-        <v>49.05114215269009</v>
+        <v>48.48795405461993</v>
       </c>
       <c r="Q5" t="n">
         <v>75.02716749247358</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>71.31264265987666</v>
+        <v>57.93692533070961</v>
       </c>
       <c r="L7" t="n">
-        <v>43.93144097118265</v>
+        <v>57.87034639841988</v>
       </c>
       <c r="M7" t="n">
-        <v>56.96725532498971</v>
+        <v>56.96725532498972</v>
       </c>
       <c r="N7" t="n">
-        <v>48.00724248301906</v>
+        <v>47.44405438494888</v>
       </c>
       <c r="O7" t="n">
-        <v>51.98589502511261</v>
+        <v>65.92480045234983</v>
       </c>
       <c r="P7" t="n">
-        <v>77.6763357595584</v>
+        <v>63.73743033232118</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>12.94064260947357</v>
+        <v>12.94064260947314</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.417684420909382</v>
+        <v>8.417684420908842</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>26.7152843051101</v>
+        <v>26.71528430510985</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.706686945650006</v>
+        <v>4.706686945649665</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>44.78527866093771</v>
+        <v>67.82753550487143</v>
       </c>
       <c r="M10" t="n">
-        <v>127.7750190618555</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>119.8462816247889</v>
+        <v>119.8462816247898</v>
       </c>
       <c r="O10" t="n">
-        <v>140.9960076314408</v>
+        <v>140.9960076314417</v>
       </c>
       <c r="P10" t="n">
-        <v>30.27380109611813</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>53.3939126509966</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>377.3680834646189</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>2.313759134068562</v>
       </c>
       <c r="G2" t="n">
-        <v>250.8728810872385</v>
+        <v>9.429168768844599</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>344.6786821097701</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>91.33986237362018</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>127.10813336443</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>92.48912964370403</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,19 +23467,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>94.08113590735695</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>72.189369633571</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>200.6028050067863</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>254.3204062902641</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>33.76930274623271</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23704,19 +23704,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>218.097472392356</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>209.2490970177986</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-7.019332111094117e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>-3.751665644813329e-12</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>6.536993168992922e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.543402455655145e-12</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>2.685851541173179e-12</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>-3.993250174971763e-12</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -26035,7 +26035,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>-2.302158463862725e-12</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96636.06652409519</v>
+        <v>96636.06652409518</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
       </c>
       <c r="D2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="E2" t="n">
-        <v>85249.27474273015</v>
+        <v>85249.27474273018</v>
       </c>
       <c r="F2" t="n">
-        <v>95842.89774391381</v>
+        <v>95842.89774391383</v>
       </c>
       <c r="G2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330356</v>
       </c>
       <c r="H2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="I2" t="n">
         <v>102630.2212330356</v>
       </c>
       <c r="J2" t="n">
+        <v>102630.2212330354</v>
+      </c>
+      <c r="K2" t="n">
         <v>102630.2212330355</v>
       </c>
-      <c r="K2" t="n">
-        <v>102630.2212330356</v>
-      </c>
       <c r="L2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="M2" t="n">
         <v>102630.2212330354</v>
@@ -26350,10 +26350,10 @@
         <v>102630.2212330355</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="P2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
     </row>
     <row r="3">
@@ -26369,40 +26369,40 @@
         <v>14932.51778509076</v>
       </c>
       <c r="D3" t="n">
-        <v>166870.2121597737</v>
+        <v>166870.2121597752</v>
       </c>
       <c r="E3" t="n">
-        <v>689688.6865783555</v>
+        <v>689688.6865783543</v>
       </c>
       <c r="F3" t="n">
-        <v>215052.109696308</v>
+        <v>215052.1096963077</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177115</v>
+        <v>25288.1618817714</v>
       </c>
       <c r="H3" t="n">
-        <v>4.831690603168681e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>1193.694917170018</v>
+        <v>1193.694917170098</v>
       </c>
       <c r="K3" t="n">
-        <v>2413.241632361312</v>
+        <v>2413.241632361269</v>
       </c>
       <c r="L3" t="n">
-        <v>54185.88543017334</v>
+        <v>54185.88543017369</v>
       </c>
       <c r="M3" t="n">
-        <v>175261.0282390387</v>
+        <v>175261.0282390385</v>
       </c>
       <c r="N3" t="n">
-        <v>56542.29359578637</v>
+        <v>56542.29359578618</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>324396.9375272356</v>
+        <v>324396.9375272354</v>
       </c>
       <c r="C4" t="n">
         <v>347394.561225959</v>
       </c>
       <c r="D4" t="n">
-        <v>296138.0947011756</v>
+        <v>296138.0947011752</v>
       </c>
       <c r="E4" t="n">
         <v>11600.2349971284</v>
@@ -26430,34 +26430,34 @@
         <v>11719.70992882691</v>
       </c>
       <c r="G4" t="n">
+        <v>42789.5950110471</v>
+      </c>
+      <c r="H4" t="n">
+        <v>42789.59501104693</v>
+      </c>
+      <c r="I4" t="n">
+        <v>42789.59501104699</v>
+      </c>
+      <c r="J4" t="n">
+        <v>42789.59501104699</v>
+      </c>
+      <c r="K4" t="n">
+        <v>42789.59501104704</v>
+      </c>
+      <c r="L4" t="n">
         <v>42789.59501104696</v>
       </c>
-      <c r="H4" t="n">
-        <v>42789.59501104699</v>
-      </c>
-      <c r="I4" t="n">
-        <v>42789.59501104704</v>
-      </c>
-      <c r="J4" t="n">
-        <v>42789.59501104697</v>
-      </c>
-      <c r="K4" t="n">
-        <v>42789.59501104688</v>
-      </c>
-      <c r="L4" t="n">
-        <v>42789.59501104699</v>
-      </c>
       <c r="M4" t="n">
-        <v>42789.59501104696</v>
+        <v>42789.59501104702</v>
       </c>
       <c r="N4" t="n">
-        <v>42789.595011047</v>
+        <v>42789.59501104698</v>
       </c>
       <c r="O4" t="n">
-        <v>42789.59501104691</v>
+        <v>42789.59501104701</v>
       </c>
       <c r="P4" t="n">
-        <v>42789.59501104696</v>
+        <v>42789.59501104701</v>
       </c>
     </row>
     <row r="5">
@@ -26473,40 +26473,40 @@
         <v>41870.80590462394</v>
       </c>
       <c r="D5" t="n">
-        <v>52157.75395761173</v>
+        <v>52157.75395761184</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>92448.996000607</v>
+        <v>92448.99600060697</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="I5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="J5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="K5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="L5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="M5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="N5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="P5" t="n">
         <v>95106.43410215528</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-584618.2086438657</v>
+        <v>-584738.0917380443</v>
       </c>
       <c r="C6" t="n">
         <v>-301567.6636826383</v>
       </c>
       <c r="D6" t="n">
-        <v>-412535.8395855256</v>
+        <v>-412535.8395855268</v>
       </c>
       <c r="E6" t="n">
-        <v>-690345.987394147</v>
+        <v>-690693.6063239519</v>
       </c>
       <c r="F6" t="n">
-        <v>-223377.9178818282</v>
+        <v>-223513.6643516102</v>
       </c>
       <c r="G6" t="n">
-        <v>-60553.96976193787</v>
+        <v>-60553.96976193822</v>
       </c>
       <c r="H6" t="n">
-        <v>-35265.80788016677</v>
+        <v>-35265.80788016661</v>
       </c>
       <c r="I6" t="n">
         <v>-35265.80788016677</v>
       </c>
       <c r="J6" t="n">
-        <v>-36459.50279733681</v>
+        <v>-36459.50279733698</v>
       </c>
       <c r="K6" t="n">
-        <v>-37679.0495125279</v>
+        <v>-37679.04951252807</v>
       </c>
       <c r="L6" t="n">
-        <v>-89451.6933103402</v>
+        <v>-89451.69331034043</v>
       </c>
       <c r="M6" t="n">
-        <v>-210526.8361192056</v>
+        <v>-210526.8361192054</v>
       </c>
       <c r="N6" t="n">
-        <v>-91808.10147595312</v>
+        <v>-91808.10147595292</v>
       </c>
       <c r="O6" t="n">
-        <v>-35265.80788016657</v>
+        <v>-35265.8078801669</v>
       </c>
       <c r="P6" t="n">
-        <v>-35265.80788016668</v>
+        <v>-35265.80788016684</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="H2" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I2" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="K2" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="N2" t="n">
         <v>31.61020235221403</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>339.2532318645832</v>
       </c>
       <c r="D3" t="n">
-        <v>492.6868896673784</v>
+        <v>492.6868896673796</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26793,13 +26793,13 @@
         <v>13.93890542723723</v>
       </c>
       <c r="D4" t="n">
-        <v>128.1180882049817</v>
+        <v>128.1180882049829</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="G4" t="n">
         <v>1062.255112188953</v>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="H2" t="n">
-        <v>6.039613253960852e-14</v>
+        <v>-1.77635683940025e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>-9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="M2" t="n">
-        <v>4.618527782440651e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.460698725481052e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>-2.344791028008331e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>13.07179987599841</v>
       </c>
       <c r="D3" t="n">
-        <v>153.4336578027952</v>
+        <v>153.4336578027964</v>
       </c>
       <c r="E3" t="n">
-        <v>597.0898109259199</v>
+        <v>597.0898109259188</v>
       </c>
       <c r="F3" t="n">
-        <v>188.3831700268247</v>
+        <v>188.3831700268245</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27015,16 +27015,16 @@
         <v>9.376618819594356</v>
       </c>
       <c r="D4" t="n">
-        <v>114.1791827777444</v>
+        <v>114.1791827777456</v>
       </c>
       <c r="E4" t="n">
-        <v>703.283367197311</v>
+        <v>703.2833671973099</v>
       </c>
       <c r="F4" t="n">
-        <v>230.8536567866602</v>
+        <v>230.8536567866596</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,19 +27036,19 @@
         <v>4.562286607642818</v>
       </c>
       <c r="K4" t="n">
-        <v>9.37661881959437</v>
+        <v>9.376618819594</v>
       </c>
       <c r="L4" t="n">
-        <v>114.1791827777444</v>
+        <v>114.1791827777458</v>
       </c>
       <c r="M4" t="n">
-        <v>703.283367197311</v>
+        <v>703.28336719731</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866602</v>
+        <v>230.8536567866596</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,13 +27157,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="M2" t="n">
-        <v>6.039613253960852e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27261,16 +27261,16 @@
         <v>9.376618819594356</v>
       </c>
       <c r="L4" t="n">
-        <v>114.1791827777444</v>
+        <v>114.1791827777456</v>
       </c>
       <c r="M4" t="n">
-        <v>703.283367197311</v>
+        <v>703.2833671973099</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866602</v>
+        <v>230.8536567866596</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>297.2706669256745</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>158.5562876816061</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>326.0456339133427</v>
       </c>
       <c r="I2" t="n">
-        <v>159.9226849201952</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.93700469168593</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S2" t="n">
         <v>179.1392278518137</v>
@@ -27436,10 +27436,10 @@
         <v>251.2407503367447</v>
       </c>
       <c r="V2" t="n">
-        <v>323.733796426123</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>168.1462123806729</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>153.0827938477581</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6419193661031</v>
+        <v>132.6234573220913</v>
       </c>
       <c r="H3" t="n">
         <v>105.4594865644317</v>
       </c>
       <c r="I3" t="n">
-        <v>60.67845717669304</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27515,10 +27515,10 @@
         <v>225.8952243311651</v>
       </c>
       <c r="V3" t="n">
-        <v>228.7821251054134</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>247.1326965532767</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>162.684534490985</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>142.4155006025573</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,10 +27552,10 @@
         <v>167.4027833335613</v>
       </c>
       <c r="H4" t="n">
-        <v>156.9975751224423</v>
+        <v>152.9791130784304</v>
       </c>
       <c r="I4" t="n">
-        <v>133.1995296799722</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J4" t="n">
         <v>51.77372115642321</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>36.90864702141808</v>
+        <v>32.34636041377521</v>
       </c>
       <c r="R4" t="n">
         <v>150.8459592031442</v>
@@ -27588,10 +27588,10 @@
         <v>213.7659454939867</v>
       </c>
       <c r="T4" t="n">
-        <v>225.4323882309924</v>
+        <v>220.8701016233495</v>
       </c>
       <c r="U4" t="n">
-        <v>281.7246593293082</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>214.0223667444519</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>340.7441361934457</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27664,7 +27664,7 @@
         <v>64.19830054973812</v>
       </c>
       <c r="S5" t="n">
-        <v>177.9417458832737</v>
+        <v>164.0028404560365</v>
       </c>
       <c r="T5" t="n">
         <v>217.1256745993586</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>364.3297585198699</v>
+        <v>355.7921952512318</v>
       </c>
       <c r="Y5" t="n">
-        <v>372.2990332288164</v>
+        <v>380.8365964974545</v>
       </c>
     </row>
     <row r="6">
@@ -27701,7 +27701,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>143.7061750281637</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>131.1303069661467</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>54.85152518778425</v>
+        <v>40.91261976054702</v>
       </c>
       <c r="S6" t="n">
-        <v>145.851656439881</v>
+        <v>158.1290443401915</v>
       </c>
       <c r="T6" t="n">
         <v>197.2234671845994</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>193.4053078769938</v>
       </c>
     </row>
     <row r="7">
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>131.482142595694</v>
       </c>
       <c r="G7" t="n">
-        <v>155.1018233351137</v>
+        <v>167.3792112354243</v>
       </c>
       <c r="H7" t="n">
-        <v>156.7879977408238</v>
+        <v>142.8490923135866</v>
       </c>
       <c r="I7" t="n">
-        <v>123.1140335818565</v>
+        <v>137.0529390090937</v>
       </c>
       <c r="J7" t="n">
-        <v>36.16826839089681</v>
+        <v>50.10717381813404</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>20.99589981290509</v>
       </c>
       <c r="R7" t="n">
-        <v>149.7860719541821</v>
+        <v>137.5086840538716</v>
       </c>
       <c r="S7" t="n">
         <v>213.3551481109984</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>253.8122818672789</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>332.8037816789632</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>319.1904619798635</v>
+        <v>191.0723737748806</v>
       </c>
       <c r="I8" t="n">
-        <v>5.99876090752835</v>
+        <v>134.1168491125098</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>25.45206132579909</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>35.76790098610635</v>
+        <v>163.8859891910879</v>
       </c>
       <c r="T8" t="n">
-        <v>214.4255506313919</v>
+        <v>214.4255506313918</v>
       </c>
       <c r="U8" t="n">
         <v>251.1872008428178</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>221.1228805124314</v>
+        <v>221.1228805124301</v>
       </c>
       <c r="X8" t="n">
-        <v>277.0828210316345</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38.41509544488568</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27986,19 +27986,19 @@
         <v>195.8932263211959</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8716622380974</v>
+        <v>97.75357403311449</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>104.6824989444424</v>
       </c>
       <c r="W9" t="n">
-        <v>226.1193805832722</v>
+        <v>226.1193805832708</v>
       </c>
       <c r="X9" t="n">
-        <v>77.65489699849581</v>
+        <v>77.65489699849459</v>
       </c>
       <c r="Y9" t="n">
-        <v>77.5646075723227</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>39.12873289364617</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>20.4973848132307</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>17.30295981794958</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.1025275902061</v>
@@ -28029,7 +28029,7 @@
         <v>154.3280286042478</v>
       </c>
       <c r="I10" t="n">
-        <v>128.7323072056241</v>
+        <v>128.732307205624</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>137.3453691428276</v>
+        <v>9.227280937844654</v>
       </c>
       <c r="S10" t="n">
-        <v>208.5333067666056</v>
+        <v>80.41521856162271</v>
       </c>
       <c r="T10" t="n">
-        <v>224.1494773275656</v>
+        <v>153.6150282497471</v>
       </c>
       <c r="U10" t="n">
         <v>286.2705683509498</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>124.0195551188451</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>155.1752063112201</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221409</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221184</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605497</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221326</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.610202352214</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I29" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605497</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221207</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522141</v>
       </c>
     </row>
     <row r="38">
@@ -30280,7 +30280,7 @@
         <v>31.61020235221403</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221338</v>
       </c>
       <c r="W38" t="n">
         <v>31.61020235221403</v>
@@ -30405,13 +30405,13 @@
         <v>31.61020235221403</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522117</v>
       </c>
       <c r="L40" t="n">
         <v>31.61020235221403</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221167</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="N40" t="n">
         <v>31.61020235221403</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605497</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221173</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221338</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221334</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221403</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.980650812733178</v>
+        <v>1.980650812733183</v>
       </c>
       <c r="H8" t="n">
-        <v>20.28434013590366</v>
+        <v>20.28434013590372</v>
       </c>
       <c r="I8" t="n">
-        <v>76.35904045789592</v>
+        <v>76.3590404578961</v>
       </c>
       <c r="J8" t="n">
-        <v>168.1052619172127</v>
+        <v>168.1052619172131</v>
       </c>
       <c r="K8" t="n">
-        <v>251.9462108202082</v>
+        <v>251.9462108202088</v>
       </c>
       <c r="L8" t="n">
-        <v>312.5615531303912</v>
+        <v>312.561553130392</v>
       </c>
       <c r="M8" t="n">
-        <v>347.7849520213348</v>
+        <v>347.7849520213358</v>
       </c>
       <c r="N8" t="n">
-        <v>353.412476143013</v>
+        <v>353.4124761430139</v>
       </c>
       <c r="O8" t="n">
-        <v>333.7173796238975</v>
+        <v>333.7173796238983</v>
       </c>
       <c r="P8" t="n">
-        <v>284.8200626845471</v>
+        <v>284.8200626845478</v>
       </c>
       <c r="Q8" t="n">
-        <v>213.8880054535401</v>
+        <v>213.8880054535406</v>
       </c>
       <c r="R8" t="n">
-        <v>124.4170566153506</v>
+        <v>124.4170566153509</v>
       </c>
       <c r="S8" t="n">
-        <v>45.13408039515733</v>
+        <v>45.13408039515745</v>
       </c>
       <c r="T8" t="n">
-        <v>8.67029893273949</v>
+        <v>8.670298932739513</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1584520650186542</v>
+        <v>0.1584520650186546</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.05974161173738</v>
+        <v>1.059741611737383</v>
       </c>
       <c r="H9" t="n">
-        <v>10.23487293441101</v>
+        <v>10.23487293441104</v>
       </c>
       <c r="I9" t="n">
-        <v>36.48671777253698</v>
+        <v>36.48671777253708</v>
       </c>
       <c r="J9" t="n">
-        <v>100.1223423615566</v>
+        <v>100.1223423615568</v>
       </c>
       <c r="K9" t="n">
-        <v>171.125030347961</v>
+        <v>171.1250303479615</v>
       </c>
       <c r="L9" t="n">
-        <v>230.0987214432412</v>
+        <v>230.0987214432418</v>
       </c>
       <c r="M9" t="n">
-        <v>268.5143548687212</v>
+        <v>268.5143548687219</v>
       </c>
       <c r="N9" t="n">
-        <v>209.4963186478836</v>
+        <v>259.4598002883162</v>
       </c>
       <c r="O9" t="n">
-        <v>252.1394877715686</v>
+        <v>202.1760061311386</v>
       </c>
       <c r="P9" t="n">
-        <v>202.3641679465879</v>
+        <v>202.3641679465885</v>
       </c>
       <c r="Q9" t="n">
-        <v>135.2750871403715</v>
+        <v>135.2750871403719</v>
       </c>
       <c r="R9" t="n">
-        <v>65.79693971822086</v>
+        <v>65.79693971822103</v>
       </c>
       <c r="S9" t="n">
-        <v>19.6842356390693</v>
+        <v>19.68423563906935</v>
       </c>
       <c r="T9" t="n">
-        <v>4.271502373625665</v>
+        <v>4.271502373625676</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06971984287745923</v>
+        <v>0.0697198428774594</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8884517682526494</v>
+        <v>0.8884517682526516</v>
       </c>
       <c r="H10" t="n">
-        <v>7.899143903191743</v>
+        <v>7.899143903191763</v>
       </c>
       <c r="I10" t="n">
-        <v>26.71816772163423</v>
+        <v>26.71816772163429</v>
       </c>
       <c r="J10" t="n">
-        <v>62.81354001546231</v>
+        <v>62.81354001546246</v>
       </c>
       <c r="K10" t="n">
-        <v>103.2219418024441</v>
+        <v>103.2219418024444</v>
       </c>
       <c r="L10" t="n">
-        <v>132.0885474363985</v>
+        <v>132.0885474363988</v>
       </c>
       <c r="M10" t="n">
-        <v>139.2688530907312</v>
+        <v>139.2688530907315</v>
       </c>
       <c r="N10" t="n">
-        <v>135.957351045426</v>
+        <v>135.9573510454263</v>
       </c>
       <c r="O10" t="n">
-        <v>125.5786190253836</v>
+        <v>125.5786190253839</v>
       </c>
       <c r="P10" t="n">
-        <v>107.4542029530295</v>
+        <v>107.4542029530297</v>
       </c>
       <c r="Q10" t="n">
-        <v>74.39572033977413</v>
+        <v>74.39572033977431</v>
       </c>
       <c r="R10" t="n">
-        <v>39.94802223434184</v>
+        <v>39.94802223434195</v>
       </c>
       <c r="S10" t="n">
-        <v>15.48329127036662</v>
+        <v>15.48329127036666</v>
       </c>
       <c r="T10" t="n">
-        <v>3.796112100715864</v>
+        <v>3.796112100715874</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04846100554105366</v>
+        <v>0.04846100554105378</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H14" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I14" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J14" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K14" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L14" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M14" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N14" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O14" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P14" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q14" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R14" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S14" t="n">
         <v>117.0897208110796</v>
@@ -32029,7 +32029,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H15" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I15" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J15" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K15" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L15" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M15" t="n">
-        <v>529.6867378368186</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>715.033982716063</v>
+        <v>616.0816594412372</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P15" t="n">
-        <v>524.9860796892351</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q15" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R15" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T15" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32154,10 +32154,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J16" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K16" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L16" t="n">
         <v>342.6725659692048</v>
@@ -32169,22 +32169,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O16" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P16" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q16" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R16" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S16" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T16" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U16" t="n">
         <v>0.1257206430118155</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H17" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I17" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R17" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S17" t="n">
         <v>117.0897208110796</v>
@@ -32266,7 +32266,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H18" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J18" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K18" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M18" t="n">
-        <v>696.597129487967</v>
+        <v>554.7018671605765</v>
       </c>
       <c r="N18" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O18" t="n">
-        <v>186.6433699764071</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>524.9860796892351</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R18" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T18" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32391,10 +32391,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J19" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L19" t="n">
         <v>342.6725659692048</v>
@@ -32406,22 +32406,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P19" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R19" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H20" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I20" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L20" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R20" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S20" t="n">
         <v>117.0897208110796</v>
@@ -32503,7 +32503,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H21" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J21" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K21" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L21" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
-        <v>696.597129487967</v>
+        <v>626.8739812799222</v>
       </c>
       <c r="N21" t="n">
-        <v>452.630236150193</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T21" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32628,10 +32628,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J22" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K22" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L22" t="n">
         <v>342.6725659692048</v>
@@ -32643,22 +32643,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P22" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R22" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32786,7 +32786,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K24" t="n">
         <v>443.943509024727</v>
@@ -32795,10 +32795,10 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M24" t="n">
-        <v>151.0727449683542</v>
+        <v>626.8739812799222</v>
       </c>
       <c r="N24" t="n">
-        <v>715.0339827160628</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>654.1164009578283</v>
@@ -32810,7 +32810,7 @@
         <v>350.9392912691326</v>
       </c>
       <c r="R24" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>51.06610426486996</v>
@@ -33023,7 +33023,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J27" t="n">
-        <v>135.7763377130026</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K27" t="n">
         <v>443.943509024727</v>
@@ -33032,13 +33032,13 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>554.7018671605765</v>
       </c>
       <c r="N27" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>524.986079689235</v>
@@ -33047,7 +33047,7 @@
         <v>350.9392912691326</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486996</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171343</v>
       </c>
       <c r="H29" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879728</v>
       </c>
       <c r="I29" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J29" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383704</v>
       </c>
       <c r="K29" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171635</v>
       </c>
       <c r="L29" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869749</v>
       </c>
       <c r="M29" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654295</v>
       </c>
       <c r="N29" t="n">
-        <v>916.8452708117591</v>
+        <v>916.845270811759</v>
       </c>
       <c r="O29" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565676</v>
       </c>
       <c r="P29" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829624</v>
       </c>
       <c r="Q29" t="n">
-        <v>554.8819566972011</v>
+        <v>554.881956697201</v>
       </c>
       <c r="R29" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581559</v>
       </c>
       <c r="S29" t="n">
         <v>117.0897208110796</v>
@@ -33254,37 +33254,37 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H30" t="n">
-        <v>26.55196259533501</v>
+        <v>26.551962595335</v>
       </c>
       <c r="I30" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781098</v>
       </c>
       <c r="J30" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L30" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155583</v>
       </c>
       <c r="M30" t="n">
-        <v>696.5971294879669</v>
+        <v>696.5971294879668</v>
       </c>
       <c r="N30" t="n">
-        <v>715.0339827160628</v>
+        <v>715.0339827160627</v>
       </c>
       <c r="O30" t="n">
-        <v>186.643369976408</v>
+        <v>602.6701715750705</v>
       </c>
       <c r="P30" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486996</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216614</v>
       </c>
       <c r="H31" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092591</v>
       </c>
       <c r="I31" t="n">
-        <v>69.31398118051422</v>
+        <v>69.3139811805142</v>
       </c>
       <c r="J31" t="n">
         <v>162.9549067838146</v>
@@ -33345,31 +33345,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L31" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692047</v>
       </c>
       <c r="M31" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754552</v>
       </c>
       <c r="N31" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696481</v>
       </c>
       <c r="O31" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246175</v>
       </c>
       <c r="P31" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381984</v>
       </c>
       <c r="Q31" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R31" t="n">
-        <v>103.6357167227398</v>
+        <v>103.6357167227397</v>
       </c>
       <c r="S31" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T31" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925531</v>
       </c>
       <c r="U31" t="n">
         <v>0.1257206430118155</v>
@@ -33500,16 +33500,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L33" t="n">
         <v>596.9368339155584</v>
       </c>
       <c r="M33" t="n">
-        <v>696.5971294879669</v>
+        <v>151.0727449683542</v>
       </c>
       <c r="N33" t="n">
-        <v>475.6116682468181</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
         <v>654.1164009578283</v>
@@ -33734,7 +33734,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J36" t="n">
-        <v>259.7437903115855</v>
+        <v>208.297560928827</v>
       </c>
       <c r="K36" t="n">
         <v>443.943509024727</v>
@@ -33749,7 +33749,7 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O36" t="n">
-        <v>602.6701715750701</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -34384,7 +34384,7 @@
         <v>865.7509905565677</v>
       </c>
       <c r="P44" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829633</v>
       </c>
       <c r="Q44" t="n">
         <v>554.8819566972011</v>
@@ -34445,13 +34445,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L45" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M45" t="n">
         <v>696.5971294879669</v>
@@ -34460,16 +34460,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P45" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486996</v>
@@ -34699,7 +34699,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>4.562286607642875</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4.562286607642875</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.377951795212859</v>
+      </c>
+      <c r="M4" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="M4" t="n">
-        <v>4.377951795212859</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P4" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34939,10 +34939,10 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>4.244969452351365</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>9.13074787681569</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="N5" t="n">
         <v>13.93890542723722</v>
@@ -34951,7 +34951,7 @@
         <v>13.93890542723723</v>
       </c>
       <c r="P5" t="n">
-        <v>13.93890542723723</v>
+        <v>13.37571732916705</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>13.37571732916704</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="M7" t="n">
         <v>13.93890542723723</v>
       </c>
       <c r="N7" t="n">
+        <v>13.37571732916704</v>
+      </c>
+      <c r="O7" t="n">
         <v>13.93890542723723</v>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
       <c r="P7" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>31.85635977522762</v>
+        <v>31.85635977522827</v>
       </c>
       <c r="L8" t="n">
-        <v>76.79513816040401</v>
+        <v>76.7951381604048</v>
       </c>
       <c r="M8" t="n">
-        <v>117.4387187940621</v>
+        <v>117.438718794063</v>
       </c>
       <c r="N8" t="n">
-        <v>123.9994125464221</v>
+        <v>123.999412546423</v>
       </c>
       <c r="O8" t="n">
-        <v>103.6191682022108</v>
+        <v>103.6191682022116</v>
       </c>
       <c r="P8" t="n">
-        <v>53.58706692927757</v>
+        <v>53.58706692927831</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>33.28359137360204</v>
+        <v>33.28359137360249</v>
       </c>
       <c r="L9" t="n">
-        <v>91.54434166336702</v>
+        <v>91.54434166336762</v>
       </c>
       <c r="M9" t="n">
-        <v>126.3803209467029</v>
+        <v>126.3803209467035</v>
       </c>
       <c r="N9" t="n">
-        <v>78.15460656455031</v>
+        <v>128.1180882049829</v>
       </c>
       <c r="O9" t="n">
-        <v>109.5432433271242</v>
+        <v>59.57976168669421</v>
       </c>
       <c r="P9" t="n">
-        <v>68.3897605322577</v>
+        <v>68.38976053225821</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>80.9524499765613</v>
+        <v>80.95244997656157</v>
       </c>
       <c r="L10" t="n">
-        <v>41.98914981609789</v>
+        <v>65.03140666003193</v>
       </c>
       <c r="M10" t="n">
-        <v>128.1180882049817</v>
+        <v>0.3430691431264847</v>
       </c>
       <c r="N10" t="n">
-        <v>128.1180882049817</v>
+        <v>128.1180882049829</v>
       </c>
       <c r="O10" t="n">
-        <v>128.1180882049817</v>
+        <v>128.1180882049829</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>104.7327622179232</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K14" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L14" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M14" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N14" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O14" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P14" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q14" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R14" t="n">
         <v>107.1851555440239</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K15" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L15" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M15" t="n">
-        <v>387.5527039148003</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>583.6922706327297</v>
+        <v>484.7399473579039</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P15" t="n">
-        <v>391.0116722749049</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.9575171831112</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R15" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>69.59572666714189</v>
+        <v>69.59572666714186</v>
       </c>
       <c r="K16" t="n">
         <v>245.5154777892838</v>
@@ -35814,13 +35814,13 @@
         <v>400.8840515372959</v>
       </c>
       <c r="N16" t="n">
-        <v>396.8414363488769</v>
+        <v>396.8414363488768</v>
       </c>
       <c r="O16" t="n">
         <v>350.3692208386573</v>
       </c>
       <c r="P16" t="n">
-        <v>276.043131703092</v>
+        <v>276.0431317030919</v>
       </c>
       <c r="Q16" t="n">
         <v>106.8400972119442</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R17" t="n">
         <v>107.1851555440239</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K18" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L18" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M18" t="n">
-        <v>554.4630955659486</v>
+        <v>412.5678332385582</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O18" t="n">
-        <v>44.04712553196261</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749049</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R18" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414979</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895099</v>
+        <v>432.49425388951</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010909</v>
       </c>
       <c r="O19" t="n">
         <v>381.9794231908713</v>
       </c>
       <c r="P19" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553061</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P20" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R20" t="n">
         <v>107.1851555440239</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K21" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L21" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
-        <v>554.4630955659486</v>
+        <v>484.7399473579039</v>
       </c>
       <c r="N21" t="n">
-        <v>321.2885240668597</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831112</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L22" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P22" t="n">
-        <v>307.6533340553038</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K24" t="n">
         <v>306.102070050368</v>
@@ -36443,10 +36443,10 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M24" t="n">
-        <v>8.938711046335936</v>
+        <v>484.7399473579039</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6922706327296</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>511.5201565133839</v>
@@ -36458,7 +36458,7 @@
         <v>210.9575171831111</v>
       </c>
       <c r="R24" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
         <v>277.1256801414978</v>
@@ -36531,10 +36531,10 @@
         <v>381.9794231908713</v>
       </c>
       <c r="P25" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553052</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>671.8997542381569</v>
       </c>
       <c r="N26" t="n">
-        <v>687.432207215169</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O26" t="n">
         <v>635.6527791348809</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>8.93871104633595</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K27" t="n">
         <v>306.102070050368</v>
@@ -36680,13 +36680,13 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>412.5678332385582</v>
       </c>
       <c r="N27" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O27" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>391.0116722749048</v>
@@ -36695,7 +36695,7 @@
         <v>210.9575171831111</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,19 +36753,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P28" t="n">
         <v>307.6533340553059</v>
@@ -36832,28 +36832,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K29" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721842</v>
       </c>
       <c r="L29" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169876</v>
       </c>
       <c r="M29" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381568</v>
       </c>
       <c r="N29" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O29" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348808</v>
       </c>
       <c r="P29" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q29" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227514</v>
       </c>
       <c r="R29" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>306.102070050368</v>
       </c>
       <c r="L30" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356841</v>
       </c>
       <c r="M30" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659484</v>
       </c>
       <c r="N30" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327294</v>
       </c>
       <c r="O30" t="n">
-        <v>44.04712553196353</v>
+        <v>460.073927130626</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.2059290193557</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L31" t="n">
         <v>401.8727935817348</v>
@@ -36999,16 +36999,16 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908711</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>575.1007761169878</v>
       </c>
       <c r="M32" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381577</v>
       </c>
       <c r="N32" t="n">
         <v>687.4322072151681</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L33" t="n">
         <v>458.3824541356842</v>
       </c>
       <c r="M33" t="n">
-        <v>554.4630955659486</v>
+        <v>8.938711046335936</v>
       </c>
       <c r="N33" t="n">
-        <v>344.2699561634848</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
         <v>511.5201565133839</v>
@@ -37227,10 +37227,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M34" t="n">
         <v>432.4942538895098</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>132.9061636449188</v>
+        <v>81.45993426216026</v>
       </c>
       <c r="K36" t="n">
         <v>306.102070050368</v>
@@ -37397,7 +37397,7 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O36" t="n">
-        <v>460.0739271306256</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>101.2059290193558</v>
+        <v>101.205929019356</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414979</v>
       </c>
       <c r="L37" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895098</v>
+        <v>432.49425388951</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010909</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908714</v>
       </c>
       <c r="P37" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553061</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641583</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37701,13 +37701,13 @@
         <v>101.2059290193559</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414955</v>
       </c>
       <c r="L40" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895075</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N40" t="n">
         <v>428.4516387010908</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193536</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M43" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P43" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>635.6527791348809</v>
       </c>
       <c r="P44" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276938</v>
       </c>
       <c r="Q44" t="n">
         <v>332.5762668227516</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M45" t="n">
         <v>554.4630955659486</v>
@@ -38108,16 +38108,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O45" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K46" t="n">
         <v>277.1256801414978</v>
@@ -38181,19 +38181,19 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M46" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N46" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O46" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P46" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.4502995641575</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
